--- a/biology/Botanique/Halmoorea/Halmoorea.xlsx
+++ b/biology/Botanique/Halmoorea/Halmoorea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Physokentia
 Orania est un genre de la famille des Arecaceae (Palmiers) comprenant des espèces natives de Madagascar, de la Thaïlande et de la Nouvelle-Guinée.
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-famille des Arecoideae
 Tribu des Oranieae</t>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (21 avril 2019)[2] et World Checklist of Selected Plant Families (WCSP)  (21 avril 2019)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (21 avril 2019) et World Checklist of Selected Plant Families (WCSP)  (21 avril 2019) :
 Orania archboldiana Burret (1939)
 Orania bakeri A.P.Keim &amp; J.Dransf. (2012)
 Orania dafonsoroensis A.P.Keim &amp; J.Dransf. (2012)
@@ -574,11 +590,11 @@
 Orania timikae A.P.Keim &amp; J.Dransf. (2012)
 Orania trispatha (J.Dransf. &amp; N.W.Uhl) Beentje &amp; J.Dransf. (1995)
 Orania zonae A.P.Keim &amp; J.Dransf. (2012)
-Selon GRIN            (21 avril 2019)[5] :
+Selon GRIN            (21 avril 2019) :
 Orania palindan (Blanco) Merr.
 Orania regalis Zipp.
 Orania sylvicola (Griff.) H. E. Moore
-Selon The Plant List            (21 avril 2019)[6] :
+Selon The Plant List            (21 avril 2019) :
 Orania archboldiana Burret
 Orania decipiens Becc.
 Orania disticha Burret
@@ -597,7 +613,7 @@
 Orania rubiginosa Becc.
 Orania sylvicola (Griff.) H.E.Moore
 Orania trispatha (J.Dransf. &amp; N.W.Uhl) Beentje &amp; J.Dransf.
-Selon Tropicos                                           (21 avril 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Orania appendiculata (F.M. Bailey) Domin
 Orania archboldiana Burret
 Orania aruensis Becc.
